--- a/03_Excel/CIM_portfolio_assetInventory.xlsx
+++ b/03_Excel/CIM_portfolio_assetInventory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Google Drive\Design\Christopher Portfolio\2015-08-01\03_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CIM-Portfolio\03_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="241">
   <si>
     <t>Project</t>
   </si>
@@ -741,6 +741,12 @@
   </si>
   <si>
     <t>presentation board</t>
+  </si>
+  <si>
+    <t>casaEliz_08.jpg</t>
+  </si>
+  <si>
+    <t>wall section</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3868,60 +3874,54 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D100" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="E100">
-        <v>72</v>
-      </c>
-      <c r="F100">
-        <v>2300</v>
-      </c>
-      <c r="G100">
-        <v>1650</v>
+        <v>300</v>
       </c>
       <c r="H100" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="I100" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D101" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E101">
         <v>72</v>
       </c>
       <c r="F101">
-        <v>1426</v>
+        <v>2300</v>
       </c>
       <c r="G101">
-        <v>950</v>
+        <v>1650</v>
       </c>
       <c r="H101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I101" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -3935,7 +3935,7 @@
         <v>228</v>
       </c>
       <c r="D102" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E102">
         <v>72</v>
@@ -3950,7 +3950,7 @@
         <v>236</v>
       </c>
       <c r="I102" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -3964,7 +3964,7 @@
         <v>228</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E103">
         <v>72</v>
@@ -3979,7 +3979,7 @@
         <v>236</v>
       </c>
       <c r="I103" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -3993,7 +3993,7 @@
         <v>228</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E104">
         <v>72</v>
@@ -4022,7 +4022,7 @@
         <v>228</v>
       </c>
       <c r="D105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E105">
         <v>72</v>
@@ -4037,7 +4037,7 @@
         <v>236</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -4051,21 +4051,50 @@
         <v>228</v>
       </c>
       <c r="D106" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E106">
         <v>72</v>
       </c>
       <c r="F106">
-        <v>1224</v>
+        <v>1426</v>
       </c>
       <c r="G106">
-        <v>1584</v>
+        <v>950</v>
       </c>
       <c r="H106" t="s">
         <v>236</v>
       </c>
       <c r="I106" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>227</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" t="s">
+        <v>237</v>
+      </c>
+      <c r="E107">
+        <v>72</v>
+      </c>
+      <c r="F107">
+        <v>1224</v>
+      </c>
+      <c r="G107">
+        <v>1584</v>
+      </c>
+      <c r="H107" t="s">
+        <v>236</v>
+      </c>
+      <c r="I107" t="s">
         <v>238</v>
       </c>
     </row>
